--- a/docs/extension-status-reason.xlsx
+++ b/docs/extension-status-reason.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>Path</t>
   </si>
@@ -140,10 +140,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>eICR Processing Status Reason</t>
-  </si>
-  <si>
-    <t>If the PHA system (or its intermediary) identifies an issue with the eICR,  this will contain those issues.  Either warnings or not done reasons.</t>
+    <t>eICR processing status reason</t>
+  </si>
+  <si>
+    <t>Details about eICR processing Warnings or Errors.</t>
   </si>
   <si>
     <t>*</t>
@@ -231,10 +231,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.valueCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/ecr-operationoutcome}
 </t>
   </si>
   <si>
@@ -242,15 +242,6 @@
   </si>
   <si>
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>If the PHA system (or its intermediary) identifies an issue with the eICR, but is still able to process the file, or  If the incoming eICR was not processed by the PHA system (or its intermediary), the code will identify  the warning or error reason.</t>
-  </si>
-  <si>
-    <t>http://fhir.hl7.org/us/ecr/ValueSet/status-reason</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -411,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -434,8 +425,8 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="230.23046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.7734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -1023,31 +1014,31 @@
         <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>

--- a/docs/extension-status-reason.xlsx
+++ b/docs/extension-status-reason.xlsx
@@ -234,7 +234,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/ecr-operationoutcome}
+    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/eicr-operationoutcome}
 </t>
   </si>
   <si>
